--- a/GE_Kaggle01/Output/GE_Kaggle_comp.xlsx
+++ b/GE_Kaggle01/Output/GE_Kaggle_comp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Kaggle\GE_Kaggle01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Kaggle\GE_Kaggle01\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,15 +29,15 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Loo2</t>
+    <t>SGD1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Loo1</t>
+    <t>XGB</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Log</t>
+    <t>SGD_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -79,20 +87,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -368,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -379,593 +493,806 @@
     <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="C2">
-        <v>28.5</v>
+        <v>34.65</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>35.159999999999997</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>32.5</v>
       </c>
       <c r="G2">
-        <f>$G$1</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <f>SQRT((G2-C2)^2)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="I2">
+        <v>31.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>29.03</v>
       </c>
       <c r="C3">
-        <v>28.5</v>
+        <v>29.84</v>
       </c>
       <c r="D3">
-        <v>32.5</v>
+        <v>31.43</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G26" si="0">$G$1</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H26" si="1">SQRT((G3-C3)^2)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31.43</v>
+      </c>
+      <c r="I3">
+        <v>22.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>33.36</v>
       </c>
       <c r="C4">
-        <v>28.5</v>
+        <v>34.28</v>
       </c>
       <c r="D4">
-        <v>34.5</v>
+        <v>29.75</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>29.75</v>
+      </c>
+      <c r="I4">
+        <v>34.159999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>31.12</v>
       </c>
       <c r="C5">
-        <v>28.5</v>
+        <v>32.14</v>
       </c>
       <c r="D5">
-        <v>35.5</v>
+        <v>34.869999999999997</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>32.5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="I5">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>25.83</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>26.6</v>
       </c>
       <c r="D6">
-        <v>35.5</v>
+        <v>31.69</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>32.5</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31.69</v>
+      </c>
+      <c r="I6" s="1">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>35.26</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>36.32</v>
       </c>
       <c r="D7">
-        <v>35.5</v>
+        <v>36.19</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>33</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>36.19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>41.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>107</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>30.99</v>
       </c>
       <c r="C8">
-        <v>28.5</v>
+        <v>32.18</v>
       </c>
       <c r="D8">
-        <v>35.5</v>
+        <v>33.96</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>32.5</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>33.96</v>
+      </c>
+      <c r="I8" s="1">
+        <v>36.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>108</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>30.12</v>
       </c>
       <c r="C9">
-        <v>30.5</v>
+        <v>30.78</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>32.47</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>32.5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>32.47</v>
+      </c>
+      <c r="I9" s="1">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>109</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>29.11</v>
       </c>
       <c r="C10">
-        <v>30.5</v>
+        <v>29.79</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>31.5</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>32.5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>110</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>29.88</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>30.64</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>32.020000000000003</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>32.5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="I11" s="1">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>111</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>29.85</v>
       </c>
       <c r="C12">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>32.340000000000003</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>33</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I12" s="1">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>112</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>31.37</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>32.15</v>
       </c>
       <c r="D13">
-        <v>33.5</v>
+        <v>33.53</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>32.5</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>33.53</v>
+      </c>
+      <c r="I13" s="1">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>113</v>
       </c>
       <c r="B14">
-        <v>38</v>
+        <v>34.43</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>35.31</v>
       </c>
       <c r="D14">
+        <v>29.85</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
         <v>33.5</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>29.85</v>
+      </c>
+      <c r="I14" s="1">
+        <v>31.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>114</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>26.43</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>27.21</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>29.39</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>29.39</v>
+      </c>
+      <c r="I15" s="1">
+        <v>29.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>115</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>27.12</v>
       </c>
       <c r="C16">
-        <v>30.5</v>
+        <v>27.83</v>
       </c>
       <c r="D16">
-        <v>28.5</v>
+        <v>29.76</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>33.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>29.76</v>
+      </c>
+      <c r="I16" s="1">
+        <v>27.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>116</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>26.94</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>27.71</v>
       </c>
       <c r="D17">
-        <v>28.5</v>
+        <v>31.02</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>33</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31.02</v>
+      </c>
+      <c r="I17" s="1">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>117</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>27.81</v>
       </c>
       <c r="C18">
-        <v>30.5</v>
+        <v>28.74</v>
       </c>
       <c r="D18">
-        <v>28.5</v>
+        <v>30.21</v>
+      </c>
+      <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>33.5</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+        <v>30.21</v>
+      </c>
+      <c r="I18" s="1">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>118</v>
       </c>
       <c r="B19">
-        <v>38</v>
+        <v>27.05</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>26.57</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>28.45</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>33.5</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+        <v>28.45</v>
+      </c>
+      <c r="I19" s="1">
+        <v>25.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>119</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>30.74</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>30.45</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>33.75</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>33.5</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+        <v>33.75</v>
+      </c>
+      <c r="I20" s="1">
+        <v>35.049999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>120</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>27.05</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>26.59</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>29.75</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>33.5</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>29.75</v>
+      </c>
+      <c r="I21" s="1">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>121</v>
       </c>
       <c r="B22">
-        <v>38</v>
+        <v>27.87</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>27.16</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>28.5</v>
+      </c>
+      <c r="E22">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>34</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+        <v>28.5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>122</v>
       </c>
       <c r="B23">
-        <v>38</v>
+        <v>27.32</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>26.09</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>29.32</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>34</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+        <v>29.32</v>
+      </c>
+      <c r="I23" s="1">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>123</v>
       </c>
       <c r="B24">
-        <v>38</v>
+        <v>26.02</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>24.86</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>27.31</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+        <v>27.31</v>
+      </c>
+      <c r="I24" s="1">
+        <v>30.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>124</v>
       </c>
       <c r="B25">
-        <v>38</v>
+        <v>29.72</v>
       </c>
       <c r="C25">
-        <v>37</v>
+        <v>28.76</v>
       </c>
       <c r="D25">
-        <v>37</v>
+        <v>31.62</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>34</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31.62</v>
+      </c>
+      <c r="I25" s="1">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>125</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>24.61</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>20.73</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>24.01</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>34.5</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B27">
-        <f>SUM(B2:B26)/COUNT(B2:B26)</f>
-        <v>34.4</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:D27" si="2">SUM(C2:C26)/COUNT(C2:C26)</f>
-        <v>34</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>34.74</v>
-      </c>
-      <c r="H27">
-        <f>SUM(H2:H26)/COUNT(H2:H26)</f>
-        <v>10</v>
+        <v>24.01</v>
+      </c>
+      <c r="I26" s="1">
+        <v>25.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>7.23</v>
+      </c>
+      <c r="C28">
+        <v>7.36</v>
+      </c>
+      <c r="D28">
+        <v>7.84</v>
+      </c>
+      <c r="E28">
+        <v>8.14</v>
+      </c>
+      <c r="F28">
+        <v>8.84</v>
+      </c>
+      <c r="G28">
+        <v>9.36</v>
+      </c>
+      <c r="H28">
+        <v>7.46</v>
+      </c>
+      <c r="I28" s="1">
+        <v>7.08</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C2:C26">
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>B2&gt;C2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>$B2&lt;$C2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:G26 F28:H28">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>B2&lt;D2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H26">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>B2&lt;H2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>B2&gt;D2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:H26">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>B2&gt;E2:H2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I26">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>B2&lt;I2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
